--- a/data_base_fields_excel/database_excel_template_up_to_source_records.xlsx
+++ b/data_base_fields_excel/database_excel_template_up_to_source_records.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/DMontecino/Library/CloudStorage/OneDrive-WildlifeConservationSociety/DATABASE/WH_Database/data_base_fields_excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FBB3B76D-E3EC-E44D-8DEE-90CE8563F277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28B005BD-0DF3-0A46-890D-796FDD936A7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="500" windowWidth="35840" windowHeight="20860" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20780" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
@@ -28,12 +28,25 @@
     <sheet name="InvertebrateSource" sheetId="11" r:id="rId13"/>
     <sheet name="InvertebrateSourceRecord" sheetId="16" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="304">
   <si>
     <t>ProjectID</t>
   </si>
@@ -912,6 +925,39 @@
   </si>
   <si>
     <t>AnimalSourceRecordAnomaly</t>
+  </si>
+  <si>
+    <t>Virus</t>
+  </si>
+  <si>
+    <t>Bacteria</t>
+  </si>
+  <si>
+    <t>Protozoo</t>
+  </si>
+  <si>
+    <t>CoV</t>
+  </si>
+  <si>
+    <t>Hanta</t>
+  </si>
+  <si>
+    <t>Lepto</t>
+  </si>
+  <si>
+    <t>Ricketssia</t>
+  </si>
+  <si>
+    <t>Plasmodium</t>
+  </si>
+  <si>
+    <t>Rodents</t>
+  </si>
+  <si>
+    <t>Chiroptera</t>
+  </si>
+  <si>
+    <t>Simpel</t>
   </si>
 </sst>
 </file>
@@ -963,7 +1009,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -971,6 +1017,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1275,9 +1322,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1358,59 +1407,173 @@
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" t="s">
-        <v>9</v>
-      </c>
       <c r="K2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" t="s">
-        <v>12</v>
+        <v>301</v>
       </c>
       <c r="N2" t="s">
-        <v>13</v>
+        <v>293</v>
       </c>
       <c r="O2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>16</v>
-      </c>
-      <c r="R2" t="s">
-        <v>17</v>
+        <v>296</v>
+      </c>
+      <c r="P2" s="3">
+        <v>45314</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>45652</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="K3" t="s">
+        <v>301</v>
+      </c>
+      <c r="N3" t="s">
+        <v>293</v>
+      </c>
+      <c r="O3" t="s">
+        <v>297</v>
+      </c>
+      <c r="P3" s="3">
+        <v>45314</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>45652</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="K4" t="s">
+        <v>301</v>
+      </c>
+      <c r="N4" t="s">
+        <v>294</v>
+      </c>
+      <c r="O4" t="s">
+        <v>298</v>
+      </c>
+      <c r="P4" s="3">
+        <v>45314</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>45652</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="K5" t="s">
+        <v>301</v>
+      </c>
+      <c r="N5" t="s">
+        <v>294</v>
+      </c>
+      <c r="O5" t="s">
+        <v>299</v>
+      </c>
+      <c r="P5" s="3">
+        <v>45314</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>45652</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="K6" t="s">
+        <v>301</v>
+      </c>
+      <c r="N6" t="s">
+        <v>295</v>
+      </c>
+      <c r="O6" t="s">
+        <v>300</v>
+      </c>
+      <c r="P6" s="3">
+        <v>45314</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>45652</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="K7" t="s">
+        <v>302</v>
+      </c>
+      <c r="N7" t="s">
+        <v>293</v>
+      </c>
+      <c r="O7" t="s">
+        <v>296</v>
+      </c>
+      <c r="P7" s="3">
+        <v>45314</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>45652</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="K8" t="s">
+        <v>302</v>
+      </c>
+      <c r="N8" t="s">
+        <v>293</v>
+      </c>
+      <c r="O8" t="s">
+        <v>297</v>
+      </c>
+      <c r="P8" s="3">
+        <v>45314</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>45652</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="K9" t="s">
+        <v>302</v>
+      </c>
+      <c r="N9" t="s">
+        <v>294</v>
+      </c>
+      <c r="O9" t="s">
+        <v>298</v>
+      </c>
+      <c r="P9" s="3">
+        <v>45314</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>45652</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="K10" t="s">
+        <v>302</v>
+      </c>
+      <c r="N10" t="s">
+        <v>294</v>
+      </c>
+      <c r="O10" t="s">
+        <v>299</v>
+      </c>
+      <c r="P10" s="3">
+        <v>45314</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>45652</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="K11" t="s">
+        <v>302</v>
+      </c>
+      <c r="N11" t="s">
+        <v>295</v>
+      </c>
+      <c r="O11" t="s">
+        <v>300</v>
+      </c>
+      <c r="P11" s="3">
+        <v>45314</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>45652</v>
       </c>
     </row>
   </sheetData>
@@ -1422,7 +1585,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:AK1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="76" workbookViewId="0">
+    <sheetView zoomScale="87" zoomScaleNormal="76" workbookViewId="0">
       <selection activeCell="K56" sqref="K56"/>
     </sheetView>
   </sheetViews>
@@ -1777,10 +1940,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AE1"/>
+  <dimension ref="A1:AE3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1910,6 +2073,22 @@
       </c>
       <c r="AE1" s="1" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>303</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -2658,7 +2837,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2704,29 +2883,8 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C2" t="s">
-        <v>155</v>
-      </c>
-      <c r="D2" t="s">
-        <v>156</v>
-      </c>
-      <c r="E2" t="s">
-        <v>157</v>
-      </c>
-      <c r="F2" t="s">
-        <v>158</v>
-      </c>
-      <c r="G2" t="s">
-        <v>159</v>
-      </c>
-      <c r="H2" t="s">
-        <v>160</v>
-      </c>
-      <c r="I2" t="s">
-        <v>161</v>
+      <c r="A2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3174,10 +3332,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3212,6 +3370,30 @@
       </c>
       <c r="G1" s="1" t="s">
         <v>225</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
